--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t xml:space="preserve">Rhoban HotSwap Board
 Bill of materials</t>
@@ -135,76 +135,57 @@
     <t xml:space="preserve">Your Instructions / Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DXL1, DXL2, DXL3, DXL4, DXL5, DXL6, DXL7, DXL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-03-5035  (3 PIN) OR 22-03-5045 (4 PIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thru-Hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farnell : 9979620 OR 1104204</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">DXL1, DXL2, DXL3, DXL4, DXL5, DXL6, DXL7, DXL8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-03-5035  (3 PIN) OR 22-03-5045 (4 PIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thru-Hole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farnell : 9979620 OR 1104204</t>
+    <t xml:space="preserve">U$1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR1545CTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Diode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farnell : 1431049</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">U$1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON SEMICONDUCTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBR1545CTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double Diode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO-220</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1431049</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">U$2</t>
   </si>
   <si>
@@ -217,23 +198,7 @@
     <t xml:space="preserve">SPDT Switch</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">150551</t>
-    </r>
+    <t xml:space="preserve">Farnell : 150551</t>
   </si>
   <si>
     <t xml:space="preserve">Click for Instructions on How to Create a BOM</t>
@@ -247,7 +212,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,11 +279,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -387,7 +347,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -476,7 +436,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,9 +524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -580,7 +540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="204480"/>
-          <a:ext cx="1329120" cy="374400"/>
+          <a:ext cx="1328760" cy="374040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,7 +563,7 @@
   <dimension ref="A2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,45 +667,45 @@
         <v>20</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>16</v>
@@ -754,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,7 +1060,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
